--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Osm-Il6st.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Osm-Il6st.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>Il6st</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>sCs</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>22.0093570214356</v>
+        <v>0.2047383333333333</v>
       </c>
       <c r="H2">
-        <v>22.0093570214356</v>
+        <v>0.614215</v>
       </c>
       <c r="I2">
-        <v>0.390663704925587</v>
+        <v>0.003296321020982326</v>
       </c>
       <c r="J2">
-        <v>0.390663704925587</v>
+        <v>0.003296321020982325</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>86.23367163728911</v>
+        <v>86.40747066666665</v>
       </c>
       <c r="N2">
-        <v>86.23367163728911</v>
+        <v>259.222412</v>
       </c>
       <c r="O2">
-        <v>0.3394647070337256</v>
+        <v>0.3380062309947018</v>
       </c>
       <c r="P2">
-        <v>0.3394647070337256</v>
+        <v>0.3380062309947017</v>
       </c>
       <c r="Q2">
-        <v>1897.947666334341</v>
+        <v>17.69092153184222</v>
       </c>
       <c r="R2">
-        <v>1897.947666334341</v>
+        <v>159.21829378658</v>
       </c>
       <c r="S2">
-        <v>0.1326165401412742</v>
+        <v>0.001114177044450843</v>
       </c>
       <c r="T2">
-        <v>0.1326165401412742</v>
+        <v>0.001114177044450843</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>22.0093570214356</v>
+        <v>0.2047383333333333</v>
       </c>
       <c r="H3">
-        <v>22.0093570214356</v>
+        <v>0.614215</v>
       </c>
       <c r="I3">
-        <v>0.390663704925587</v>
+        <v>0.003296321020982326</v>
       </c>
       <c r="J3">
-        <v>0.390663704925587</v>
+        <v>0.003296321020982325</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>124.270079842119</v>
+        <v>125.002688</v>
       </c>
       <c r="N3">
-        <v>124.270079842119</v>
+        <v>375.008064</v>
       </c>
       <c r="O3">
-        <v>0.4891976120893926</v>
+        <v>0.4889818797969518</v>
       </c>
       <c r="P3">
-        <v>0.4891976120893926</v>
+        <v>0.4889818797969517</v>
       </c>
       <c r="Q3">
-        <v>2735.104554327505</v>
+        <v>25.59284200330666</v>
       </c>
       <c r="R3">
-        <v>2735.104554327505</v>
+        <v>230.33557802976</v>
       </c>
       <c r="S3">
-        <v>0.1911117515795922</v>
+        <v>0.001611841249254145</v>
       </c>
       <c r="T3">
-        <v>0.1911117515795922</v>
+        <v>0.001611841249254145</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>22.0093570214356</v>
+        <v>0.2047383333333333</v>
       </c>
       <c r="H4">
-        <v>22.0093570214356</v>
+        <v>0.614215</v>
       </c>
       <c r="I4">
-        <v>0.390663704925587</v>
+        <v>0.003296321020982326</v>
       </c>
       <c r="J4">
-        <v>0.390663704925587</v>
+        <v>0.003296321020982325</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.881087590781</v>
+        <v>15.01290066666667</v>
       </c>
       <c r="N4">
-        <v>14.881087590781</v>
+        <v>45.038702</v>
       </c>
       <c r="O4">
-        <v>0.05858041230803015</v>
+        <v>0.05872702824751719</v>
       </c>
       <c r="P4">
-        <v>0.05858041230803015</v>
+        <v>0.05872702824751717</v>
       </c>
       <c r="Q4">
-        <v>327.523169652754</v>
+        <v>3.073716260992222</v>
       </c>
       <c r="R4">
-        <v>327.523169652754</v>
+        <v>27.66344634893</v>
       </c>
       <c r="S4">
-        <v>0.02288524090832351</v>
+        <v>0.0001935831377121137</v>
       </c>
       <c r="T4">
-        <v>0.02288524090832351</v>
+        <v>0.0001935831377121137</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>22.0093570214356</v>
+        <v>0.2047383333333333</v>
       </c>
       <c r="H5">
-        <v>22.0093570214356</v>
+        <v>0.614215</v>
       </c>
       <c r="I5">
-        <v>0.390663704925587</v>
+        <v>0.003296321020982326</v>
       </c>
       <c r="J5">
-        <v>0.390663704925587</v>
+        <v>0.003296321020982325</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.8799611394544</v>
+        <v>16.92374966666667</v>
       </c>
       <c r="N5">
-        <v>16.8799611394544</v>
+        <v>50.771249</v>
       </c>
       <c r="O5">
-        <v>0.06644911383394851</v>
+        <v>0.06620183179756665</v>
       </c>
       <c r="P5">
-        <v>0.06644911383394851</v>
+        <v>0.06620183179756664</v>
       </c>
       <c r="Q5">
-        <v>371.5170912262108</v>
+        <v>3.464940300503889</v>
       </c>
       <c r="R5">
-        <v>371.5170912262108</v>
+        <v>31.184462704535</v>
       </c>
       <c r="S5">
-        <v>0.0259592569993924</v>
+        <v>0.0002182224897818551</v>
       </c>
       <c r="T5">
-        <v>0.0259592569993924</v>
+        <v>0.000218222489781855</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -785,49 +785,49 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>22.0093570214356</v>
+        <v>0.2047383333333333</v>
       </c>
       <c r="H6">
-        <v>22.0093570214356</v>
+        <v>0.614215</v>
       </c>
       <c r="I6">
-        <v>0.390663704925587</v>
+        <v>0.003296321020982326</v>
       </c>
       <c r="J6">
-        <v>0.390663704925587</v>
+        <v>0.003296321020982325</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.7635858067027</v>
+        <v>12.29188266666667</v>
       </c>
       <c r="N6">
-        <v>11.7635858067027</v>
+        <v>36.875648</v>
       </c>
       <c r="O6">
-        <v>0.04630815473490328</v>
+        <v>0.04808302916326276</v>
       </c>
       <c r="P6">
-        <v>0.04630815473490328</v>
+        <v>0.04808302916326274</v>
       </c>
       <c r="Q6">
-        <v>258.9089598720122</v>
+        <v>2.516619570702222</v>
       </c>
       <c r="R6">
-        <v>258.9089598720122</v>
+        <v>22.64957613632</v>
       </c>
       <c r="S6">
-        <v>0.01809091529700468</v>
+        <v>0.0001584970997833692</v>
       </c>
       <c r="T6">
-        <v>0.01809091529700468</v>
+        <v>0.0001584970997833692</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>34.3290146878787</v>
+        <v>0.8320383333333333</v>
       </c>
       <c r="H7">
-        <v>34.3290146878787</v>
+        <v>2.496115</v>
       </c>
       <c r="I7">
-        <v>0.6093362950744129</v>
+        <v>0.01339595474758724</v>
       </c>
       <c r="J7">
-        <v>0.6093362950744129</v>
+        <v>0.01339595474758724</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>86.23367163728911</v>
+        <v>86.40747066666665</v>
       </c>
       <c r="N7">
-        <v>86.23367163728911</v>
+        <v>259.222412</v>
       </c>
       <c r="O7">
-        <v>0.3394647070337256</v>
+        <v>0.3380062309947018</v>
       </c>
       <c r="P7">
-        <v>0.3394647070337256</v>
+        <v>0.3380062309947017</v>
       </c>
       <c r="Q7">
-        <v>2960.316980226206</v>
+        <v>71.89432788104222</v>
       </c>
       <c r="R7">
-        <v>2960.316980226206</v>
+        <v>647.0489509293799</v>
       </c>
       <c r="S7">
-        <v>0.2068481668924513</v>
+        <v>0.004527916174807545</v>
       </c>
       <c r="T7">
-        <v>0.2068481668924513</v>
+        <v>0.004527916174807544</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>34.3290146878787</v>
+        <v>0.8320383333333333</v>
       </c>
       <c r="H8">
-        <v>34.3290146878787</v>
+        <v>2.496115</v>
       </c>
       <c r="I8">
-        <v>0.6093362950744129</v>
+        <v>0.01339595474758724</v>
       </c>
       <c r="J8">
-        <v>0.6093362950744129</v>
+        <v>0.01339595474758724</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>124.270079842119</v>
+        <v>125.002688</v>
       </c>
       <c r="N8">
-        <v>124.270079842119</v>
+        <v>375.008064</v>
       </c>
       <c r="O8">
-        <v>0.4891976120893926</v>
+        <v>0.4889818797969518</v>
       </c>
       <c r="P8">
-        <v>0.4891976120893926</v>
+        <v>0.4889818797969517</v>
       </c>
       <c r="Q8">
-        <v>4266.069396163962</v>
+        <v>104.0070281857067</v>
       </c>
       <c r="R8">
-        <v>4266.069396163962</v>
+        <v>936.06325367136</v>
       </c>
       <c r="S8">
-        <v>0.2980858605098003</v>
+        <v>0.006550379134150111</v>
       </c>
       <c r="T8">
-        <v>0.2980858605098003</v>
+        <v>0.00655037913415011</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>34.3290146878787</v>
+        <v>0.8320383333333333</v>
       </c>
       <c r="H9">
-        <v>34.3290146878787</v>
+        <v>2.496115</v>
       </c>
       <c r="I9">
-        <v>0.6093362950744129</v>
+        <v>0.01339595474758724</v>
       </c>
       <c r="J9">
-        <v>0.6093362950744129</v>
+        <v>0.01339595474758724</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.881087590781</v>
+        <v>15.01290066666667</v>
       </c>
       <c r="N9">
-        <v>14.881087590781</v>
+        <v>45.038702</v>
       </c>
       <c r="O9">
-        <v>0.05858041230803015</v>
+        <v>0.05872702824751719</v>
       </c>
       <c r="P9">
-        <v>0.05858041230803015</v>
+        <v>0.05872702824751717</v>
       </c>
       <c r="Q9">
-        <v>510.8530744755304</v>
+        <v>12.49130884919222</v>
       </c>
       <c r="R9">
-        <v>510.8530744755304</v>
+        <v>112.42177964273</v>
       </c>
       <c r="S9">
-        <v>0.03569517139970663</v>
+        <v>0.0007867046128640179</v>
       </c>
       <c r="T9">
-        <v>0.03569517139970663</v>
+        <v>0.0007867046128640177</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>34.3290146878787</v>
+        <v>0.8320383333333333</v>
       </c>
       <c r="H10">
-        <v>34.3290146878787</v>
+        <v>2.496115</v>
       </c>
       <c r="I10">
-        <v>0.6093362950744129</v>
+        <v>0.01339595474758724</v>
       </c>
       <c r="J10">
-        <v>0.6093362950744129</v>
+        <v>0.01339595474758724</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.8799611394544</v>
+        <v>16.92374966666667</v>
       </c>
       <c r="N10">
-        <v>16.8799611394544</v>
+        <v>50.771249</v>
       </c>
       <c r="O10">
-        <v>0.06644911383394851</v>
+        <v>0.06620183179756665</v>
       </c>
       <c r="P10">
-        <v>0.06644911383394851</v>
+        <v>0.06620183179756664</v>
       </c>
       <c r="Q10">
-        <v>579.4724338871517</v>
+        <v>14.08120846640389</v>
       </c>
       <c r="R10">
-        <v>579.4724338871517</v>
+        <v>126.730876197635</v>
       </c>
       <c r="S10">
-        <v>0.0404898568345561</v>
+        <v>0.000886836742967585</v>
       </c>
       <c r="T10">
-        <v>0.0404898568345561</v>
+        <v>0.0008868367429675849</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,681 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>34.3290146878787</v>
+        <v>0.8320383333333333</v>
       </c>
       <c r="H11">
-        <v>34.3290146878787</v>
+        <v>2.496115</v>
       </c>
       <c r="I11">
-        <v>0.6093362950744129</v>
+        <v>0.01339595474758724</v>
       </c>
       <c r="J11">
-        <v>0.6093362950744129</v>
+        <v>0.01339595474758724</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.7635858067027</v>
+        <v>12.29188266666667</v>
       </c>
       <c r="N11">
-        <v>11.7635858067027</v>
+        <v>36.875648</v>
       </c>
       <c r="O11">
-        <v>0.04630815473490328</v>
+        <v>0.04808302916326276</v>
       </c>
       <c r="P11">
-        <v>0.04630815473490328</v>
+        <v>0.04808302916326274</v>
       </c>
       <c r="Q11">
-        <v>403.8323099404184</v>
+        <v>10.22731756750222</v>
       </c>
       <c r="R11">
-        <v>403.8323099404184</v>
+        <v>92.04585810752</v>
       </c>
       <c r="S11">
-        <v>0.0282172394378986</v>
+        <v>0.0006441180827979855</v>
       </c>
       <c r="T11">
-        <v>0.0282172394378986</v>
+        <v>0.0006441180827979853</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>22.65109566666667</v>
+      </c>
+      <c r="H12">
+        <v>67.953287</v>
+      </c>
+      <c r="I12">
+        <v>0.3646863856840764</v>
+      </c>
+      <c r="J12">
+        <v>0.3646863856840764</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>86.40747066666665</v>
+      </c>
+      <c r="N12">
+        <v>259.222412</v>
+      </c>
+      <c r="O12">
+        <v>0.3380062309947018</v>
+      </c>
+      <c r="P12">
+        <v>0.3380062309947017</v>
+      </c>
+      <c r="Q12">
+        <v>1957.22388438536</v>
+      </c>
+      <c r="R12">
+        <v>17615.01495946824</v>
+      </c>
+      <c r="S12">
+        <v>0.1232662707201548</v>
+      </c>
+      <c r="T12">
+        <v>0.1232662707201548</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>22.65109566666667</v>
+      </c>
+      <c r="H13">
+        <v>67.953287</v>
+      </c>
+      <c r="I13">
+        <v>0.3646863856840764</v>
+      </c>
+      <c r="J13">
+        <v>0.3646863856840764</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>125.002688</v>
+      </c>
+      <c r="N13">
+        <v>375.008064</v>
+      </c>
+      <c r="O13">
+        <v>0.4889818797969518</v>
+      </c>
+      <c r="P13">
+        <v>0.4889818797969517</v>
+      </c>
+      <c r="Q13">
+        <v>2831.447844478485</v>
+      </c>
+      <c r="R13">
+        <v>25483.03060030637</v>
+      </c>
+      <c r="S13">
+        <v>0.1783250344081559</v>
+      </c>
+      <c r="T13">
+        <v>0.1783250344081558</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>22.65109566666667</v>
+      </c>
+      <c r="H14">
+        <v>67.953287</v>
+      </c>
+      <c r="I14">
+        <v>0.3646863856840764</v>
+      </c>
+      <c r="J14">
+        <v>0.3646863856840764</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>15.01290066666667</v>
+      </c>
+      <c r="N14">
+        <v>45.038702</v>
+      </c>
+      <c r="O14">
+        <v>0.05872702824751719</v>
+      </c>
+      <c r="P14">
+        <v>0.05872702824751717</v>
+      </c>
+      <c r="Q14">
+        <v>340.0586492348305</v>
+      </c>
+      <c r="R14">
+        <v>3060.527843113474</v>
+      </c>
+      <c r="S14">
+        <v>0.0214169476735537</v>
+      </c>
+      <c r="T14">
+        <v>0.0214169476735537</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>22.65109566666667</v>
+      </c>
+      <c r="H15">
+        <v>67.953287</v>
+      </c>
+      <c r="I15">
+        <v>0.3646863856840764</v>
+      </c>
+      <c r="J15">
+        <v>0.3646863856840764</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>16.92374966666667</v>
+      </c>
+      <c r="N15">
+        <v>50.771249</v>
+      </c>
+      <c r="O15">
+        <v>0.06620183179756665</v>
+      </c>
+      <c r="P15">
+        <v>0.06620183179756664</v>
+      </c>
+      <c r="Q15">
+        <v>383.3414727383848</v>
+      </c>
+      <c r="R15">
+        <v>3450.073254645463</v>
+      </c>
+      <c r="S15">
+        <v>0.02414290676391975</v>
+      </c>
+      <c r="T15">
+        <v>0.02414290676391974</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>22.65109566666667</v>
+      </c>
+      <c r="H16">
+        <v>67.953287</v>
+      </c>
+      <c r="I16">
+        <v>0.3646863856840764</v>
+      </c>
+      <c r="J16">
+        <v>0.3646863856840764</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>12.29188266666667</v>
+      </c>
+      <c r="N16">
+        <v>36.875648</v>
+      </c>
+      <c r="O16">
+        <v>0.04808302916326276</v>
+      </c>
+      <c r="P16">
+        <v>0.04808302916326274</v>
+      </c>
+      <c r="Q16">
+        <v>278.4246102061084</v>
+      </c>
+      <c r="R16">
+        <v>2505.821491854976</v>
+      </c>
+      <c r="S16">
+        <v>0.01753522611829234</v>
+      </c>
+      <c r="T16">
+        <v>0.01753522611829233</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>38.423291</v>
+      </c>
+      <c r="H17">
+        <v>115.269873</v>
+      </c>
+      <c r="I17">
+        <v>0.6186213385473539</v>
+      </c>
+      <c r="J17">
+        <v>0.618621338547354</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>86.40747066666665</v>
+      </c>
+      <c r="N17">
+        <v>259.222412</v>
+      </c>
+      <c r="O17">
+        <v>0.3380062309947018</v>
+      </c>
+      <c r="P17">
+        <v>0.3380062309947017</v>
+      </c>
+      <c r="Q17">
+        <v>3320.059389999297</v>
+      </c>
+      <c r="R17">
+        <v>29880.53450999367</v>
+      </c>
+      <c r="S17">
+        <v>0.2090978670552885</v>
+      </c>
+      <c r="T17">
+        <v>0.2090978670552885</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>38.423291</v>
+      </c>
+      <c r="H18">
+        <v>115.269873</v>
+      </c>
+      <c r="I18">
+        <v>0.6186213385473539</v>
+      </c>
+      <c r="J18">
+        <v>0.618621338547354</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>125.002688</v>
+      </c>
+      <c r="N18">
+        <v>375.008064</v>
+      </c>
+      <c r="O18">
+        <v>0.4889818797969518</v>
+      </c>
+      <c r="P18">
+        <v>0.4889818797969517</v>
+      </c>
+      <c r="Q18">
+        <v>4803.014656806207</v>
+      </c>
+      <c r="R18">
+        <v>43227.13191125587</v>
+      </c>
+      <c r="S18">
+        <v>0.3024946250053916</v>
+      </c>
+      <c r="T18">
+        <v>0.3024946250053916</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>38.423291</v>
+      </c>
+      <c r="H19">
+        <v>115.269873</v>
+      </c>
+      <c r="I19">
+        <v>0.6186213385473539</v>
+      </c>
+      <c r="J19">
+        <v>0.618621338547354</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>15.01290066666667</v>
+      </c>
+      <c r="N19">
+        <v>45.038702</v>
+      </c>
+      <c r="O19">
+        <v>0.05872702824751719</v>
+      </c>
+      <c r="P19">
+        <v>0.05872702824751717</v>
+      </c>
+      <c r="Q19">
+        <v>576.8450510694273</v>
+      </c>
+      <c r="R19">
+        <v>5191.605459624846</v>
+      </c>
+      <c r="S19">
+        <v>0.03632979282338734</v>
+      </c>
+      <c r="T19">
+        <v>0.03632979282338734</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>38.423291</v>
+      </c>
+      <c r="H20">
+        <v>115.269873</v>
+      </c>
+      <c r="I20">
+        <v>0.6186213385473539</v>
+      </c>
+      <c r="J20">
+        <v>0.618621338547354</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>16.92374966666667</v>
+      </c>
+      <c r="N20">
+        <v>50.771249</v>
+      </c>
+      <c r="O20">
+        <v>0.06620183179756665</v>
+      </c>
+      <c r="P20">
+        <v>0.06620183179756664</v>
+      </c>
+      <c r="Q20">
+        <v>650.2661582534863</v>
+      </c>
+      <c r="R20">
+        <v>5852.395424281377</v>
+      </c>
+      <c r="S20">
+        <v>0.04095386580089746</v>
+      </c>
+      <c r="T20">
+        <v>0.04095386580089746</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>38.423291</v>
+      </c>
+      <c r="H21">
+        <v>115.269873</v>
+      </c>
+      <c r="I21">
+        <v>0.6186213385473539</v>
+      </c>
+      <c r="J21">
+        <v>0.618621338547354</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>12.29188266666667</v>
+      </c>
+      <c r="N21">
+        <v>36.875648</v>
+      </c>
+      <c r="O21">
+        <v>0.04808302916326276</v>
+      </c>
+      <c r="P21">
+        <v>0.04808302916326274</v>
+      </c>
+      <c r="Q21">
+        <v>472.2945846391893</v>
+      </c>
+      <c r="R21">
+        <v>4250.651261752704</v>
+      </c>
+      <c r="S21">
+        <v>0.02974518786238906</v>
+      </c>
+      <c r="T21">
+        <v>0.02974518786238906</v>
       </c>
     </row>
   </sheetData>
